--- a/python/explainable_ai/figure/PSS/figure.xlsx
+++ b/python/explainable_ai/figure/PSS/figure.xlsx
@@ -7,8 +7,9 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="paper_figure19" sheetId="2" r:id="rId1"/>
-    <sheet name="template" sheetId="1" r:id="rId2"/>
+    <sheet name="paper_figure1" sheetId="3" r:id="rId1"/>
+    <sheet name="paper_figure19" sheetId="2" r:id="rId2"/>
+    <sheet name="template" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -86,6 +87,423 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>20017</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect b="28697"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="476251"/>
+          <a:ext cx="6925642" cy="2533650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="367408"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="180975"/>
+          <a:ext cx="748923" cy="367408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>入力層側</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>202754</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="左右矢印 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="288479"/>
+          <a:ext cx="4495800" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="367408"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="180975"/>
+          <a:ext cx="748923" cy="367408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>出力層側</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>55813</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>20389</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>149542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="左中かっこ 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4727258" y="2713287"/>
+          <a:ext cx="146685" cy="440826"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>17714</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>220415</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>149542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="左中かっこ 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5165409" y="2713287"/>
+          <a:ext cx="146685" cy="440826"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>220896</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>112485</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>149542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="左中かっこ 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5451160" y="2868843"/>
+          <a:ext cx="146685" cy="129714"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2018501" cy="367408"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067175" y="3038475"/>
+          <a:ext cx="2018501" cy="367408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>層単位で顕著性降順にソート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2317,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP16" sqref="AP16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2337,6 +2755,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP16" sqref="AP16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="3.125" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
